--- a/DataWarehouse/tunisian_data/excel/Temps.xlsx
+++ b/DataWarehouse/tunisian_data/excel/Temps.xlsx
@@ -476,23 +476,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Jour</t>
+          <t>Nuit</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -507,11 +507,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
         <v>30</v>
@@ -538,18 +538,18 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>23:15</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -569,14 +569,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -585,7 +585,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Nuit</t>
+          <t>Jour</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -600,14 +600,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nuit</t>
+          <t>Jour</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -631,28 +631,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nuit</t>
+          <t>Jour</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Oui</t>
+          <t>Non</t>
         </is>
       </c>
     </row>
@@ -662,28 +662,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Jour</t>
+          <t>Nuit</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Non</t>
+          <t>Oui</t>
         </is>
       </c>
     </row>
@@ -693,28 +693,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Jour</t>
+          <t>Nuit</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Non</t>
+          <t>Oui</t>
         </is>
       </c>
     </row>
@@ -724,14 +724,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>02:45</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -755,18 +755,18 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Non</t>
+          <t>Oui</t>
         </is>
       </c>
     </row>
@@ -786,14 +786,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -817,14 +817,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -848,14 +848,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Jour</t>
+          <t>Nuit</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -879,11 +879,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>00:45</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>45</v>
@@ -895,12 +895,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Jour</t>
+          <t>Nuit</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Non</t>
+          <t>Oui</t>
         </is>
       </c>
     </row>
@@ -910,28 +910,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Jour</t>
+          <t>Nuit</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Non</t>
+          <t>Oui</t>
         </is>
       </c>
     </row>
@@ -941,28 +941,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>03:45</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Jour</t>
+          <t>Nuit</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Non</t>
+          <t>Oui</t>
         </is>
       </c>
     </row>
@@ -972,18 +972,18 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>30</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Non</t>
+          <t>Oui</t>
         </is>
       </c>
     </row>
@@ -1003,14 +1003,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1034,18 +1034,18 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1065,23 +1065,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
         <v>30</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Jour</t>
+          <t>Nuit</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1096,23 +1096,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>22:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Nuit</t>
+          <t>Jour</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1127,18 +1127,18 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>06:15</t>
         </is>
       </c>
       <c r="C23" t="n">
+        <v>6</v>
+      </c>
+      <c r="D23" t="n">
         <v>15</v>
       </c>
-      <c r="D23" t="n">
-        <v>30</v>
-      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1158,18 +1158,18 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Non</t>
+          <t>Oui</t>
         </is>
       </c>
     </row>
@@ -1189,14 +1189,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Jour</t>
+          <t>Nuit</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1220,14 +1220,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Jour</t>
+          <t>Nuit</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1251,14 +1251,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>19</v>
       </c>
       <c r="D27" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1282,28 +1282,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>00:15</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Jour</t>
+          <t>Nuit</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Non</t>
+          <t>Oui</t>
         </is>
       </c>
     </row>
@@ -1313,23 +1313,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Nuit</t>
+          <t>Jour</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1344,18 +1344,18 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1375,28 +1375,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D31" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Nuit</t>
+          <t>Jour</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Oui</t>
+          <t>Non</t>
         </is>
       </c>
     </row>
@@ -1406,14 +1406,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1437,14 +1437,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>07:15</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1453,12 +1453,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Nuit</t>
+          <t>Jour</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Oui</t>
+          <t>Non</t>
         </is>
       </c>
     </row>
@@ -1468,18 +1468,18 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>22:45</t>
+          <t>01:15</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Non</t>
+          <t>Oui</t>
         </is>
       </c>
     </row>
@@ -1499,14 +1499,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D35" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Jour</t>
+          <t>Nuit</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1530,28 +1530,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Nuit</t>
+          <t>Jour</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Oui</t>
+          <t>Non</t>
         </is>
       </c>
     </row>
@@ -1561,14 +1561,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D37" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Jour</t>
+          <t>Nuit</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1592,14 +1592,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1623,28 +1623,28 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>18:15</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D39" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Nuit</t>
+          <t>Jour</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Oui</t>
+          <t>Non</t>
         </is>
       </c>
     </row>
@@ -1654,14 +1654,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Jour</t>
+          <t>Nuit</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Non</t>
+          <t>Oui</t>
         </is>
       </c>
     </row>
@@ -1685,14 +1685,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D41" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1716,18 +1716,18 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>00:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D42" t="n">
         <v>30</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Oui</t>
+          <t>Non</t>
         </is>
       </c>
     </row>
@@ -1747,14 +1747,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="C43" t="n">
+        <v>16</v>
+      </c>
+      <c r="D43" t="n">
         <v>15</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1778,14 +1778,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D44" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Jour</t>
+          <t>Nuit</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1809,11 +1809,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D45" t="n">
         <v>15</v>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Nuit</t>
+          <t>Jour</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -1840,28 +1840,28 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>07:45</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D46" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Nuit</t>
+          <t>Jour</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Oui</t>
+          <t>Non</t>
         </is>
       </c>
     </row>
@@ -1871,28 +1871,28 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>05:15</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D47" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Nuit</t>
+          <t>Jour</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Oui</t>
+          <t>Non</t>
         </is>
       </c>
     </row>
@@ -1902,18 +1902,18 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>03:45</t>
+          <t>22:45</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D48" t="n">
         <v>45</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Oui</t>
+          <t>Non</t>
         </is>
       </c>
     </row>
@@ -1933,11 +1933,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>22:45</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D49" t="n">
         <v>45</v>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Jour</t>
+          <t>Nuit</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
